--- a/medicine/Psychotrope/Le_Zimmer/Le_Zimmer.xlsx
+++ b/medicine/Psychotrope/Le_Zimmer/Le_Zimmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Zimmer est une brasserie du 1er arrondissement de Paris, fondée à la fin du XIXe siècle et située place du Châtelet, où elle jouxte le théâtre du Châtelet.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie forme l'angle nord-ouest de la place du Châtelet avec l'avenue Victoria.
 </t>
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est créée par une famille alsacienne après la guerre de 1870 et la Commune[1]. L'histoire du Zimmer est liée à celle du théâtre du Châtelet. En effet, Haussmann, à l'origine du projet dans le cadre de ses transformations de Paris, a demandé à l'architecte Gabriel Davioud de ménager des espaces pour des boutiques, afin d'amortir le théâtre. Parmi ces boutiques était prévu un café, censé être lié à l'exploitation du théâtre. Rochard, qui remporte l'adjudication du bail le 24 janvier 1898, en confie la gestion le 1er octobre suivant à la société Prosper Rousseau et Cie, propriétaire des brasseries Zimmer[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est créée par une famille alsacienne après la guerre de 1870 et la Commune. L'histoire du Zimmer est liée à celle du théâtre du Châtelet. En effet, Haussmann, à l'origine du projet dans le cadre de ses transformations de Paris, a demandé à l'architecte Gabriel Davioud de ménager des espaces pour des boutiques, afin d'amortir le théâtre. Parmi ces boutiques était prévu un café, censé être lié à l'exploitation du théâtre. Rochard, qui remporte l'adjudication du bail le 24 janvier 1898, en confie la gestion le 1er octobre suivant à la société Prosper Rousseau et Cie, propriétaire des brasseries Zimmer.
 Le 20 novembre 1902, lors d'un déjeuner au Zimmer, l'idée du Tour de France cycliste est suggérée par Géo Lefèvre à Henri Desgrange.
-L'établissement est redécoré en 2000 par Jacques Garcia[3],[4].
+L'établissement est redécoré en 2000 par Jacques Garcia,.
 </t>
         </is>
       </c>
